--- a/Tercero/DIR/GIC-DIR-P1-e8/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e8/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A710F5-DEE1-4852-8FB8-2F8E5613B302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83FA182-8A73-496B-BD45-C4AB788929E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1475,6 +1475,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1531,24 +1549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1890,37 +1890,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -2294,17 +2294,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2318,7 +2318,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>53</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>60</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>61</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>65</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>66</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>69</v>
       </c>
@@ -2557,13 +2557,13 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="85" t="s">
+      <c r="Q19" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="86"/>
-      <c r="S19" s="87"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R19" s="92"/>
+      <c r="S19" s="93"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
@@ -2585,13 +2585,13 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="88" t="s">
+      <c r="Q20" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="89"/>
-      <c r="S20" s="90"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R20" s="95"/>
+      <c r="S20" s="96"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>76</v>
       </c>
@@ -2612,13 +2612,13 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="88" t="s">
+      <c r="Q21" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="89"/>
-      <c r="S21" s="90"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R21" s="95"/>
+      <c r="S21" s="96"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>79</v>
       </c>
@@ -2643,13 +2643,13 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="91" t="s">
+      <c r="Q22" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="92"/>
-      <c r="S22" s="93"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R22" s="98"/>
+      <c r="S22" s="99"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>83</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>86</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>84</v>
       </c>
@@ -2741,19 +2741,19 @@
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="81" t="s">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="89"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>91</v>
       </c>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>94</v>
       </c>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>105</v>
       </c>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>106</v>
       </c>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>108</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>109</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>111</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>113</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>115</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>117</v>
       </c>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="I45" s="33"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>120</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>177</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="H49" s="37"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="52" t="s">
         <v>180</v>
       </c>
@@ -3302,20 +3302,20 @@
       <c r="H50" s="33"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="84" t="s">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="83"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="89"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>122</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>127</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>133</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>134</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F58" s="51"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>135</v>
       </c>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="F59" s="51"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>175</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>176</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="F61" s="51"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>224</v>
       </c>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="F62" s="51"/>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>226</v>
       </c>
@@ -3554,18 +3554,18 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="97" t="s">
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="99"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="80"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="64" t="s">
         <v>181</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="F65" s="67"/>
       <c r="G65" s="37"/>
     </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
         <v>194</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="s">
         <v>182</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
         <v>183</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
         <v>184</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="59" t="s">
         <v>185</v>
       </c>
@@ -3684,15 +3684,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="94" t="s">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="96"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="77"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
         <v>231</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="62" t="s">
         <v>235</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>240</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>243</v>
       </c>
@@ -3748,13 +3748,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="23"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="52"/>
       <c r="B77" s="42"/>
       <c r="C77" s="43"/>
@@ -3765,16 +3765,16 @@
     <sortCondition ref="F3:F11"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S22"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A51:F51"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tercero/DIR/GIC-DIR-P1-e8/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e8/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83FA182-8A73-496B-BD45-C4AB788929E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1CA768-9CC6-4C04-9155-1EECF50A7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1475,54 +1475,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1549,6 +1501,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,16 +1911,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2295,16 +2295,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2557,11 +2557,11 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="91" t="s">
+      <c r="Q19" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="92"/>
-      <c r="S19" s="93"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="77"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
@@ -2585,11 +2585,11 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="94" t="s">
+      <c r="Q20" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="95"/>
-      <c r="S20" s="96"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="80"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
@@ -2612,11 +2612,11 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="94" t="s">
+      <c r="Q21" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="95"/>
-      <c r="S21" s="96"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="80"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
@@ -2643,11 +2643,11 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="97" t="s">
+      <c r="Q22" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="98"/>
-      <c r="S22" s="99"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="83"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -2742,16 +2742,16 @@
       <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="89"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
@@ -3303,14 +3303,14 @@
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="89"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="98"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
@@ -3555,15 +3555,15 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="80"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="89"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="64" t="s">
@@ -3685,12 +3685,12 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="77"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="86"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
@@ -3765,16 +3765,16 @@
     <sortCondition ref="F3:F11"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A51:F51"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tercero/DIR/GIC-DIR-P1-e8/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e8/GIC-DIR-Practica2-e2-VLANs_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1CA768-9CC6-4C04-9155-1EECF50A7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA98D5A-A824-413D-BCE1-32CF465C4BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="244">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -443,9 +443,6 @@
     <t>B-DB</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -455,30 +452,6 @@
     <t>192.168.1.2/24</t>
   </si>
   <si>
-    <t>192.168.1.3</t>
-  </si>
-  <si>
-    <t>192.168.1.4</t>
-  </si>
-  <si>
-    <t>192.168.1.5</t>
-  </si>
-  <si>
-    <t>192.168.1.6</t>
-  </si>
-  <si>
-    <t>192.168.1.7</t>
-  </si>
-  <si>
-    <t>192.168.1.8</t>
-  </si>
-  <si>
-    <t>192.168.1.9</t>
-  </si>
-  <si>
-    <t>192.168.1.10</t>
-  </si>
-  <si>
     <t>192.168.1.12</t>
   </si>
   <si>
@@ -491,78 +464,9 @@
     <t>192.168.1.15</t>
   </si>
   <si>
-    <t>10.0.48.4</t>
-  </si>
-  <si>
-    <t>10.0.48.5</t>
-  </si>
-  <si>
-    <t>10.0.48.3</t>
-  </si>
-  <si>
-    <t>10.0.48.2</t>
-  </si>
-  <si>
-    <t>10.0.60.2</t>
-  </si>
-  <si>
-    <t>10.0.60.3</t>
-  </si>
-  <si>
-    <t>10.0.60.4</t>
-  </si>
-  <si>
-    <t>10.0.60.5</t>
-  </si>
-  <si>
-    <t>10.0.56.3</t>
-  </si>
-  <si>
-    <t>10.0.56.2</t>
-  </si>
-  <si>
-    <t>10.0.62.2</t>
-  </si>
-  <si>
-    <t>10.0.62.3</t>
-  </si>
-  <si>
-    <t>10.0.52.3</t>
-  </si>
-  <si>
-    <t>10.0.52.2</t>
-  </si>
-  <si>
-    <t>10.0.54.2</t>
-  </si>
-  <si>
-    <t>10.0.54.3</t>
-  </si>
-  <si>
-    <t>10.0.61.3</t>
-  </si>
-  <si>
-    <t>10.0.61.2</t>
-  </si>
-  <si>
-    <t>10.0.58.2</t>
-  </si>
-  <si>
-    <t>10.0.58.3</t>
-  </si>
-  <si>
-    <t>192.168.1.1 (Office)</t>
-  </si>
-  <si>
-    <t>192.168.1.11 (Data Center)</t>
-  </si>
-  <si>
     <t>192.168.1.16</t>
   </si>
   <si>
-    <t>DNS</t>
-  </si>
-  <si>
     <t>DHCP</t>
   </si>
   <si>
@@ -572,15 +476,9 @@
     <t>FastEthernet 0/3</t>
   </si>
   <si>
-    <t>192.168.1.22/24</t>
-  </si>
-  <si>
     <t>PC-Office-Admin</t>
   </si>
   <si>
-    <t>ANILLO</t>
-  </si>
-  <si>
     <t>S1-S2</t>
   </si>
   <si>
@@ -593,9 +491,6 @@
     <t>S4-S1</t>
   </si>
   <si>
-    <t>192.168.2.2</t>
-  </si>
-  <si>
     <t>192.168.2.5</t>
   </si>
   <si>
@@ -611,24 +506,12 @@
     <t>192.168.2.10</t>
   </si>
   <si>
-    <t>192.168.2.13</t>
-  </si>
-  <si>
-    <t>192.168.2.14</t>
-  </si>
-  <si>
-    <t>ENLACE</t>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
     <t>SITE</t>
   </si>
   <si>
-    <t>RESUMEN</t>
-  </si>
-  <si>
     <t>10.0.48-62.x</t>
   </si>
   <si>
@@ -656,9 +539,6 @@
     <t>AS</t>
   </si>
   <si>
-    <t>CONEXIÓN DE SITES</t>
-  </si>
-  <si>
     <t>10.3.10.0/23</t>
   </si>
   <si>
@@ -689,18 +569,6 @@
     <t>10.3.6.1/23</t>
   </si>
   <si>
-    <t>10.3.2.1/23</t>
-  </si>
-  <si>
-    <t>10.3.8.1/23</t>
-  </si>
-  <si>
-    <t>10.3.4.1/23</t>
-  </si>
-  <si>
-    <t>10.3.10.1/23</t>
-  </si>
-  <si>
     <t>10.3.12.1/23</t>
   </si>
   <si>
@@ -713,18 +581,9 @@
     <t>192.168.0.4/30</t>
   </si>
   <si>
-    <t>OFFICE-WAN</t>
-  </si>
-  <si>
-    <t>192.168.0.8/30</t>
-  </si>
-  <si>
     <t>192.168.0.5/30</t>
   </si>
   <si>
-    <t>192.168.0.9/30</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -776,13 +635,136 @@
     <t>192.168.0.18/30</t>
   </si>
   <si>
-    <t>IP PÚBLICA</t>
-  </si>
-  <si>
     <t>80.1.1.128</t>
   </si>
   <si>
     <t>80.1.1.129</t>
+  </si>
+  <si>
+    <t>Admin-DC</t>
+  </si>
+  <si>
+    <t>PROTOCOLO</t>
+  </si>
+  <si>
+    <t>IP PRIVADA</t>
+  </si>
+  <si>
+    <t>PUERTO</t>
+  </si>
+  <si>
+    <t>IP PUBLICA</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>TRADUCCIONES NAT ESTÁTICAS</t>
+  </si>
+  <si>
+    <t>SERVIDOR DNS EXTERNO</t>
+  </si>
+  <si>
+    <t>SERVIDOR WEB 1 HTTP</t>
+  </si>
+  <si>
+    <t>SERVIDOR WEB 2 HTTP</t>
+  </si>
+  <si>
+    <t>SERVIDOR WEB 1 HTTPS</t>
+  </si>
+  <si>
+    <t>SERVIDOR WEB 2 HTTPS</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>10.3.0.2</t>
+  </si>
+  <si>
+    <t>10.3.6.2</t>
+  </si>
+  <si>
+    <t>10.3.14.2</t>
+  </si>
+  <si>
+    <t>192.168.0.6/30</t>
+  </si>
+  <si>
+    <t>OFFICE-DC</t>
+  </si>
+  <si>
+    <t>192.168.0.2/30</t>
+  </si>
+  <si>
+    <t>DNS-EXT</t>
+  </si>
+  <si>
+    <t>DNS-INT</t>
+  </si>
+  <si>
+    <t>192.168.2.0/30</t>
+  </si>
+  <si>
+    <t>192.168.2.4/30</t>
+  </si>
+  <si>
+    <t>192.168.2.8/30</t>
+  </si>
+  <si>
+    <t>192.168.2.12/30</t>
+  </si>
+  <si>
+    <t>192.168.2.1/30</t>
+  </si>
+  <si>
+    <t>192.168.2.2/30</t>
+  </si>
+  <si>
+    <t>192.168.2.5/30</t>
+  </si>
+  <si>
+    <t>192.168.2.9/30</t>
+  </si>
+  <si>
+    <t>192.168.2.13/30</t>
+  </si>
+  <si>
+    <t>192.168.2.6/30</t>
+  </si>
+  <si>
+    <t>192.168.2.10/30</t>
+  </si>
+  <si>
+    <t>192.168.2.14/30</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN DE LOS SITES</t>
+  </si>
+  <si>
+    <t>192.168.1.1/24</t>
+  </si>
+  <si>
+    <t>Admin-Office</t>
+  </si>
+  <si>
+    <t>192.168.2.0/24</t>
+  </si>
+  <si>
+    <t>192.168.2.2/24</t>
+  </si>
+  <si>
+    <t>192.168.2.3</t>
+  </si>
+  <si>
+    <t>192.168.2.4</t>
+  </si>
+  <si>
+    <t>192.168.2.7</t>
+  </si>
+  <si>
+    <t>192.168.2.8</t>
   </si>
 </sst>
 </file>
@@ -825,7 +807,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1400,25 +1388,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1430,39 +1400,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1475,6 +1418,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1511,43 +1484,43 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1888,39 +1861,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1931,7 +1904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2004,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2076,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -2112,7 +2085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -2148,7 +2121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2184,7 +2157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -2220,7 +2193,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2256,31 +2229,29 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="C11" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="18">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E11" s="18">
         <v>256</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>173</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H11" s="9"/>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2294,17 +2265,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2318,7 +2289,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
@@ -2356,7 +2327,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>53</v>
       </c>
@@ -2370,7 +2341,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>57</v>
@@ -2395,7 +2366,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>60</v>
       </c>
@@ -2409,7 +2380,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>57</v>
@@ -2433,7 +2404,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>61</v>
       </c>
@@ -2447,7 +2418,7 @@
         <v>63</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>64</v>
@@ -2467,7 +2438,7 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>65</v>
       </c>
@@ -2481,7 +2452,7 @@
         <v>63</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>64</v>
@@ -2502,7 +2473,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
         <v>66</v>
       </c>
@@ -2516,7 +2487,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>64</v>
@@ -2536,7 +2507,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>69</v>
       </c>
@@ -2550,20 +2521,20 @@
         <v>68</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="75" t="s">
+      <c r="Q19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="76"/>
-      <c r="S19" s="77"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R19" s="71"/>
+      <c r="S19" s="72"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
@@ -2577,7 +2548,7 @@
         <v>74</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>64</v>
@@ -2585,13 +2556,13 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="78" t="s">
+      <c r="Q20" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="80"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R20" s="74"/>
+      <c r="S20" s="75"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>76</v>
       </c>
@@ -2605,20 +2576,20 @@
         <v>74</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="78" t="s">
+      <c r="Q21" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="79"/>
-      <c r="S21" s="80"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R21" s="74"/>
+      <c r="S21" s="75"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>79</v>
       </c>
@@ -2632,7 +2603,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>57</v>
@@ -2643,13 +2614,13 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="81" t="s">
+      <c r="Q22" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="82"/>
-      <c r="S22" s="83"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R22" s="77"/>
+      <c r="S22" s="78"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>83</v>
       </c>
@@ -2663,7 +2634,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>57</v>
@@ -2675,7 +2646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
@@ -2689,7 +2660,7 @@
         <v>89</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>64</v>
@@ -2697,7 +2668,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>86</v>
       </c>
@@ -2711,7 +2682,7 @@
         <v>87</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>64</v>
@@ -2719,7 +2690,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>84</v>
       </c>
@@ -2733,7 +2704,7 @@
         <v>85</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>64</v>
@@ -2741,19 +2712,19 @@
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96" t="s">
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="68"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
         <v>91</v>
       </c>
@@ -2777,7 +2748,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>94</v>
       </c>
@@ -2791,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>61</v>
@@ -2801,7 +2772,7 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
@@ -2815,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>61</v>
@@ -2825,7 +2796,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -2839,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>76</v>
@@ -2849,7 +2820,7 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -2863,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>76</v>
@@ -2873,7 +2844,7 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
@@ -2887,7 +2858,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>72</v>
@@ -2897,7 +2868,7 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>105</v>
       </c>
@@ -2911,7 +2882,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>72</v>
@@ -2921,7 +2892,7 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>106</v>
       </c>
@@ -2935,7 +2906,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>76</v>
@@ -2945,7 +2916,7 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>108</v>
       </c>
@@ -2959,7 +2930,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>76</v>
@@ -2969,7 +2940,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>109</v>
       </c>
@@ -2983,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>65</v>
@@ -2992,7 +2963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
@@ -3006,7 +2977,7 @@
         <v>24</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>65</v>
@@ -3016,7 +2987,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>111</v>
       </c>
@@ -3030,7 +3001,7 @@
         <v>40</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>66</v>
@@ -3039,7 +3010,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
@@ -3053,7 +3024,7 @@
         <v>40</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>66</v>
@@ -3062,7 +3033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>113</v>
       </c>
@@ -3076,7 +3047,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>66</v>
@@ -3085,7 +3056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
@@ -3099,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>66</v>
@@ -3108,7 +3079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>115</v>
       </c>
@@ -3122,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>69</v>
@@ -3131,7 +3102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
@@ -3145,7 +3116,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>69</v>
@@ -3156,7 +3127,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>117</v>
       </c>
@@ -3170,7 +3141,7 @@
         <v>36</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>69</v>
@@ -3180,7 +3151,7 @@
       </c>
       <c r="I45" s="33"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
@@ -3194,7 +3165,7 @@
         <v>36</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>69</v>
@@ -3204,7 +3175,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
@@ -3218,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>72</v>
@@ -3228,7 +3199,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>120</v>
       </c>
@@ -3242,7 +3213,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>72</v>
@@ -3252,46 +3223,46 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>88</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="52" t="s">
-        <v>180</v>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="50" t="s">
+        <v>147</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="F50" s="43" t="s">
         <v>61</v>
@@ -3302,20 +3273,20 @@
       <c r="H50" s="33"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99" t="s">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="98"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
         <v>122</v>
       </c>
@@ -3331,15 +3302,13 @@
       <c r="E52" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="32" t="s">
-        <v>247</v>
-      </c>
+      <c r="F52" s="32"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="92" t="s">
         <v>127</v>
       </c>
       <c r="B53" s="7">
@@ -3354,417 +3323,541 @@
       <c r="E53" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="50"/>
+      <c r="F53" s="19"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="89" t="s">
         <v>130</v>
       </c>
       <c r="B54" s="8">
         <v>501</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="88">
         <v>512</v>
       </c>
-      <c r="D54" s="23" t="s">
-        <v>213</v>
+      <c r="D54" s="88" t="s">
+        <v>173</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>248</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F54" s="20"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="89" t="s">
         <v>131</v>
       </c>
       <c r="B55" s="8">
         <v>504</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="88">
         <v>512</v>
       </c>
-      <c r="D55" s="23" t="s">
-        <v>212</v>
+      <c r="D55" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" s="51" t="s">
-        <v>249</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F55" s="20"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="89" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="8">
         <v>502</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="88">
         <v>512</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="F56" s="51"/>
+      <c r="D56" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="89" t="s">
         <v>133</v>
       </c>
       <c r="B57" s="8">
         <v>505</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="88">
         <v>512</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" s="51"/>
+      <c r="D57" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="89" t="s">
         <v>134</v>
       </c>
       <c r="B58" s="8">
         <v>503</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="88">
         <v>512</v>
       </c>
-      <c r="D58" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="F58" s="51"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="D58" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="89" t="s">
         <v>135</v>
       </c>
       <c r="B59" s="8">
         <v>506</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="88">
         <v>512</v>
       </c>
-      <c r="D59" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="F59" s="51"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>175</v>
+      <c r="D59" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="89" t="s">
+        <v>222</v>
       </c>
       <c r="B60" s="8">
         <v>507</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="88">
         <v>512</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>214</v>
+      <c r="D60" s="88" t="s">
+        <v>174</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="89" t="s">
+        <v>221</v>
       </c>
       <c r="B61" s="8">
         <v>508</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="88">
         <v>512</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="45">
+        <v>600</v>
+      </c>
+      <c r="C62" s="82">
+        <v>256</v>
+      </c>
+      <c r="D62" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F62" s="41"/>
+      <c r="G62" s="82"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="94"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="91"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>1</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="51">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>2</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>3</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="50">
+        <v>4</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="81"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B79" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="85"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="F61" s="51"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B62" s="8">
-        <v>509</v>
-      </c>
-      <c r="C62" s="23">
-        <v>4</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="F62" s="51"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="8">
-        <v>510</v>
-      </c>
-      <c r="C63" s="23">
-        <v>4</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="87" t="s">
+      <c r="D89" s="41">
+        <v>80</v>
+      </c>
+      <c r="E89" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89" s="41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="89"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="60"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="37"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="G66" s="73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="51">
-        <v>1</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="G67" s="57">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="51">
-        <v>2</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F68" s="20" t="s">
+      <c r="C90" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="41">
+        <v>80</v>
+      </c>
+      <c r="E90" s="82" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="51">
-        <v>3</v>
-      </c>
-      <c r="E69" s="8" t="s">
+      <c r="F90" s="41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="41">
+        <v>53</v>
+      </c>
+      <c r="E91" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="F69" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="56">
-        <v>4</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="F70" s="44" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="86"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B72" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" s="72" t="s">
-        <v>232</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="B73" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="20"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="52"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="44"/>
+      <c r="F91" s="41">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="41">
+        <v>443</v>
+      </c>
+      <c r="E92" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" s="41">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="48">
+        <v>443</v>
+      </c>
+      <c r="E93" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" s="48">
+        <v>443</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
     <sortCondition ref="F3:F11"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A27:H27"/>
@@ -3773,8 +3866,6 @@
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A64:G64"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
